--- a/bott index quasicrystal.xlsx
+++ b/bott index quasicrystal.xlsx
@@ -5,12 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Fixed quasicrystal" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="20x20" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="30x30" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="PBC 24x24" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="PBC 22x22" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="PBC 20x20" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
   <si>
     <t xml:space="preserve">The two lines are fixed, and the system size is varied</t>
   </si>
@@ -66,7 +69,25 @@
     <t xml:space="preserve">system size</t>
   </si>
   <si>
+    <t xml:space="preserve">number of sites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in quasicrystal</t>
+  </si>
+  <si>
     <t xml:space="preserve">oscillations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24x24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22x22</t>
   </si>
 </sst>
 </file>
@@ -181,7 +202,7 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -429,10 +450,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -448,6 +469,12 @@
         <v>8</v>
       </c>
       <c r="D1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -463,6 +490,9 @@
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,7 +758,7 @@
         <v>-1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,6 +775,13 @@
       </c>
       <c r="I21" s="1" t="n">
         <v>-1</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">(K21/400)*100</f>
+        <v>85.75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,4 +1768,1487 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">ROUND((K7/576)*100,2)</f>
+        <v>95.14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">ROUND((K8/576)*100,2)</f>
+        <v>92.53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/576)*100,2)</f>
+        <v>89.41</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/576)*100,2)</f>
+        <v>85.59</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">ROUND((K11/576)*100,2)</f>
+        <v>81.42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">ROUND((K12/576)*100,2)</f>
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">ROUND((K13/576)*100,2)</f>
+        <v>71.18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">ROUND((K15/576)*100,2)</f>
+        <v>78.82</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">ROUND((K16/576)*100,2)</f>
+        <v>75.87</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="G17" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">ROUND((K17/576)*100,2)</f>
+        <v>73.61</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">ROUND((K19/576)*100,2)</f>
+        <v>79.17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">ROUND((K20/576)*100,2)</f>
+        <v>76.74</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">ROUND((K21/576)*100,2)</f>
+        <v>73.96</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <f aca="false">ROUND((K22/576)*100,2)</f>
+        <v>70.83</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="D24" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="G24" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <f aca="false">ROUND((K24/576)*100,2)</f>
+        <v>74.13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="G25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <f aca="false">ROUND((K25/576)*100,2)</f>
+        <v>71.35</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="G27" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <f aca="false">ROUND((K27/576)*100,2)</f>
+        <v>61.98</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">ROUND((K7/484)*100,2)</f>
+        <v>93.18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">ROUND((K8/484)*100,2)</f>
+        <v>89.67</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/484)*100,2)</f>
+        <v>85.74</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/484)*100,2)</f>
+        <v>80.99</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">ROUND((K11/484)*100,2)</f>
+        <v>75.83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">ROUND((K12/484)*100,2)</f>
+        <v>69.83</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">ROUND((K13/484)*100,2)</f>
+        <v>63.02</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">ROUND((K14/484)*100,2)</f>
+        <v>55.79</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">ROUND((K16/484)*100,2)</f>
+        <v>78.51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="G17" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">ROUND((K17/484)*100,2)</f>
+        <v>75.62</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">ROUND((K18/484)*100,2)</f>
+        <v>72.93</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="58">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="1" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">(K7/400)*100</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">(K8/400)*100</f>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">(K9/400)*100</f>
+        <v>90.25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">(K10/400)*100</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">(K11/400)*100</f>
+        <v>85.75</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">(K12/400)*100</f>
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">(K13/400)*100</f>
+        <v>83.25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">(K14/400)*100</f>
+        <v>83.25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">(K15/400)*100</f>
+        <v>80.25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">(K16/400)*100</f>
+        <v>76.75</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="G17" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">(K17/400)*100</f>
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">(K18/400)*100</f>
+        <v>71.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/bott index quasicrystal.xlsx
+++ b/bott index quasicrystal.xlsx
@@ -11,9 +11,10 @@
     <sheet name="Fixed quasicrystal" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="20x20" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="30x30" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="PBC 24x24" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="PBC 22x22" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="PBC 20x20" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="PBC 26x26" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="PBC 24x24" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="PBC 22x22" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="PBC 20x20" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
   <si>
     <t xml:space="preserve">The two lines are fixed, and the system size is varied</t>
   </si>
@@ -81,10 +82,13 @@
     <t xml:space="preserve">oscillations</t>
   </si>
   <si>
-    <t xml:space="preserve">24x24</t>
+    <t xml:space="preserve">26x26</t>
   </si>
   <si>
     <t xml:space="preserve">PBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24x24</t>
   </si>
   <si>
     <t xml:space="preserve">22x22</t>
@@ -453,7 +457,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1775,10 +1779,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1864,7 +1868,786 @@
         <v>1.5</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">ROUND((K7/676)*100,2)</f>
+        <v>91.86</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">ROUND((K8/676)*100,2)</f>
+        <v>90.68</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/676)*100,2)</f>
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/676)*100,2)</f>
+        <v>87.43</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">ROUND((K11/676)*100,2)</f>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">ROUND((K12/676)*100,2)</f>
+        <v>83.28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">ROUND((K13/676)*100,2)</f>
+        <v>80.92</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">ROUND((K14/676)*100,2)</f>
+        <v>78.25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">ROUND((K15/676)*100,2)</f>
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">ROUND((K16/676)*100,2)</f>
+        <v>72.19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="G17" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">ROUND((K17/676)*100,2)</f>
+        <v>68.79</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">ROUND((K18/676)*100,2)</f>
+        <v>65.09</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">ROUND((K19/676)*100,2)</f>
+        <v>61.24</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <f aca="false">ROUND((K23/676)*100,2)</f>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="D24" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="G24" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <f aca="false">ROUND((K24/676)*100,2)</f>
+        <v>81.51</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="G25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <f aca="false">ROUND((K25/676)*100,2)</f>
+        <v>77.07</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="G26" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <f aca="false">ROUND((K26/676)*100,2)</f>
+        <v>72.19</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="G27" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <f aca="false">ROUND((K27/676)*100,2)</f>
+        <v>66.86</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="G28" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <f aca="false">ROUND((K28/676)*100,2)</f>
+        <v>60.95</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="G31" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <f aca="false">ROUND((K31/676)*100,2)</f>
+        <v>79.59</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="D32" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="G32" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <f aca="false">ROUND((K32/676)*100,2)</f>
+        <v>77.37</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="D34" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="G34" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <f aca="false">ROUND((K34/676)*100,2)</f>
+        <v>78.99</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="D35" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="G35" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <f aca="false">ROUND((K35/676)*100,2)</f>
+        <v>74.85</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="78">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>548</v>
@@ -1887,7 +2670,7 @@
         <v>1.5</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>533</v>
@@ -1910,7 +2693,7 @@
         <v>1.5</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1" t="n">
         <v>515</v>
@@ -1933,7 +2716,7 @@
         <v>1.5</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>493</v>
@@ -1956,7 +2739,7 @@
         <v>1.5</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>469</v>
@@ -2031,7 +2814,7 @@
         <v>1.5</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>454</v>
@@ -2106,7 +2889,7 @@
         <v>1.5</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1" t="n">
         <v>456</v>
@@ -2129,7 +2912,7 @@
         <v>1.5</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1" t="n">
         <v>442</v>
@@ -2152,7 +2935,7 @@
         <v>1.5</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>426</v>
@@ -2259,11 +3042,11 @@
         <v>0</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="M27" s="1" t="n">
         <f aca="false">ROUND((K27/576)*100,2)</f>
-        <v>61.98</v>
+        <v>65.28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,15 +3146,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2384,7 +3167,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
@@ -2457,7 +3240,7 @@
         <v>1.5</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>451</v>
@@ -2480,7 +3263,7 @@
         <v>1.5</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>434</v>
@@ -2503,7 +3286,7 @@
         <v>1.5</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1" t="n">
         <v>415</v>
@@ -2526,7 +3309,7 @@
         <v>1.5</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>392</v>
@@ -2549,7 +3332,7 @@
         <v>1.5</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>367</v>
@@ -2647,7 +3430,7 @@
         <v>1.5</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>380</v>
@@ -2670,7 +3453,7 @@
         <v>1.5</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>366</v>
@@ -2682,38 +3465,72 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2"/>
       <c r="D18" s="2" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E18" s="2"/>
       <c r="G18" s="1" t="n">
         <v>1.5</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M18" s="1" t="n">
         <f aca="false">ROUND((K18/484)*100,2)</f>
-        <v>72.93</v>
+        <v>72.31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="B19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="n">
+        <v>-1</v>
+      </c>
       <c r="E19" s="2"/>
+      <c r="G19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">ROUND((K19/484)*100,2)</f>
+        <v>68.8</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="B20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="E20" s="2"/>
+      <c r="G20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">ROUND((K20/484)*100,2)</f>
+        <v>64.88</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
@@ -2722,22 +3539,96 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="n">
+        <v>14</v>
+      </c>
       <c r="B22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="n">
+        <v>-5</v>
+      </c>
       <c r="E22" s="2"/>
+      <c r="G22" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <f aca="false">ROUND((K22/484)*100,2)</f>
+        <v>78.31</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="n">
+        <v>14</v>
+      </c>
       <c r="B23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="n">
+        <v>-3</v>
+      </c>
       <c r="E23" s="2"/>
+      <c r="G23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <f aca="false">ROUND((K23/484)*100,2)</f>
+        <v>72.93</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="D24" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="G24" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <f aca="false">ROUND((K24/484)*100,2)</f>
+        <v>69.63</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="n">
+        <v>14</v>
+      </c>
       <c r="B25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="n">
+        <v>-1</v>
+      </c>
       <c r="E25" s="2"/>
+      <c r="G25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <f aca="false">ROUND((K25/484)*100,2)</f>
+        <v>66.12</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
@@ -2746,16 +3637,27 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="n">
+        <v>13</v>
+      </c>
       <c r="B27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="n">
+        <v>-2</v>
+      </c>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="G27" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <f aca="false">ROUND((K27/484)*100,2)</f>
+        <v>66.53</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
@@ -2763,6 +3665,12 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
@@ -2775,8 +3683,533 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="65">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="1" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">(K7/400)*100</f>
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">(K8/400)*100</f>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">(K9/400)*100</f>
+        <v>90.25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">(K10/400)*100</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">(K11/400)*100</f>
+        <v>85.75</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">(K12/400)*100</f>
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">(K13/400)*100</f>
+        <v>83.25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">(K14/400)*100</f>
+        <v>83.25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">(K15/400)*100</f>
+        <v>80.25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">(K16/400)*100</f>
+        <v>76.75</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="G17" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">(K17/400)*100</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">(K18/400)*100</f>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">(K19/400)*100</f>
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">(K20/400)*100</f>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">(K21/400)*100</f>
+        <v>71.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A3:B3"/>
@@ -2817,431 +4250,6 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M18"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="1" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="D7" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <f aca="false">(K7/400)*100</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <f aca="false">(K8/400)*100</f>
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <f aca="false">(K9/400)*100</f>
-        <v>90.25</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <f aca="false">(K10/400)*100</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <f aca="false">(K11/400)*100</f>
-        <v>85.75</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="G12" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <f aca="false">(K12/400)*100</f>
-        <v>80.75</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="G13" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <f aca="false">(K13/400)*100</f>
-        <v>83.25</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="D14" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="G14" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <f aca="false">(K14/400)*100</f>
-        <v>83.25</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="D15" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="G15" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <f aca="false">(K15/400)*100</f>
-        <v>80.25</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="G16" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <f aca="false">(K16/400)*100</f>
-        <v>76.75</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="D17" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="G17" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <f aca="false">(K17/400)*100</f>
-        <v>74.25</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="D18" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="G18" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <f aca="false">(K18/400)*100</f>
-        <v>71.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/bott index quasicrystal.xlsx
+++ b/bott index quasicrystal.xlsx
@@ -11,10 +11,13 @@
     <sheet name="Fixed quasicrystal" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="20x20" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="30x30" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="PBC 26x26" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="PBC 24x24" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="PBC 22x22" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="PBC 20x20" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="PBC 36x36" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="PBC 30x30" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="PBC 28x28" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="PBC 26x26" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="PBC 24x24" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="PBC 22x22" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="PBC 20x20" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="24">
   <si>
     <t xml:space="preserve">The two lines are fixed, and the system size is varied</t>
   </si>
@@ -82,10 +85,16 @@
     <t xml:space="preserve">oscillations</t>
   </si>
   <si>
-    <t xml:space="preserve">26x26</t>
+    <t xml:space="preserve">36x36</t>
   </si>
   <si>
     <t xml:space="preserve">PBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28x28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26x26</t>
   </si>
   <si>
     <t xml:space="preserve">24x24</t>
@@ -449,6 +458,488 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="1" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">(K7/400)*100</f>
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">(K8/400)*100</f>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">(K9/400)*100</f>
+        <v>90.25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">(K10/400)*100</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">(K11/400)*100</f>
+        <v>85.75</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">(K12/400)*100</f>
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">(K13/400)*100</f>
+        <v>83.25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">(K14/400)*100</f>
+        <v>83.25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">(K15/400)*100</f>
+        <v>80.25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">(K16/400)*100</f>
+        <v>76.75</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="G17" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">(K17/400)*100</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">(K18/400)*100</f>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">(K19/400)*100</f>
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">(K20/400)*100</f>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">(K21/400)*100</f>
+        <v>71.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1779,10 +2270,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1796,6 +2287,2062 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>1105</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">ROUND((K7/1296)*100,2)</f>
+        <v>85.26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">ROUND((K8/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">ROUND((K11/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">ROUND((K12/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">ROUND((K13/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">ROUND((K14/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="M15" s="1" t="n">
+        <f aca="false">ROUND((K15/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="M16" s="1" t="n">
+        <f aca="false">ROUND((K16/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="M17" s="1" t="n">
+        <f aca="false">ROUND((K17/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">ROUND((K18/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">ROUND((K19/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">ROUND((K20/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">ROUND((K21/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <f aca="false">ROUND((K22/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <f aca="false">ROUND((K23/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="1" t="n">
+        <f aca="false">ROUND((K24/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="1" t="n">
+        <f aca="false">ROUND((K25/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="1" t="n">
+        <f aca="false">ROUND((K26/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="1" t="n">
+        <f aca="false">ROUND((K27/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="M28" s="1" t="n">
+        <f aca="false">ROUND((K28/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="M29" s="1" t="n">
+        <f aca="false">ROUND((K29/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="D30" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="G30" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <f aca="false">ROUND((K30/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="G31" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <f aca="false">ROUND((K31/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="M32" s="1" t="n">
+        <f aca="false">ROUND((K32/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <f aca="false">ROUND((K33/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="D34" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="G34" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <f aca="false">ROUND((K34/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">ROUND((K7/900)*100,2)</f>
+        <v>84.89</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">ROUND((K8/900)*100,2)</f>
+        <v>81.56</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/900)*100,2)</f>
+        <v>79.33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/900)*100,2)</f>
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">ROUND((K11/900)*100,2)</f>
+        <v>73.56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">ROUND((K12/900)*100,2)</f>
+        <v>69.11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">ROUND((K13/900)*100,2)</f>
+        <v>64.22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">ROUND((K14/900)*100,2)</f>
+        <v>59.11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">ROUND((K18/900)*100,2)</f>
+        <v>83.56</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">ROUND((K19/900)*100,2)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">ROUND((K20/900)*100,2)</f>
+        <v>80.22</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">ROUND((K21/900)*100,2)</f>
+        <v>78.33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <f aca="false">ROUND((K22/900)*100,2)</f>
+        <v>76.22</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <f aca="false">ROUND((K23/900)*100,2)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="D30" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="G30" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <f aca="false">ROUND((K30/900)*100,2)</f>
+        <v>75.33</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="G31" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <f aca="false">ROUND((K31/900)*100,2)</f>
+        <v>71.67</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <f aca="false">ROUND((K33/900)*100,2)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="D34" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="G34" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <f aca="false">ROUND((K34/900)*100,2)</f>
+        <v>74.11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">ROUND((K7/784)*100,2)</f>
+        <v>88.39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">ROUND((K8/784)*100,2)</f>
+        <v>87.12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/784)*100,2)</f>
+        <v>85.59</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/784)*100,2)</f>
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">ROUND((K11/784)*100,2)</f>
+        <v>81.89</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">ROUND((K12/784)*100,2)</f>
+        <v>79.72</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">ROUND((K13/784)*100,2)</f>
+        <v>77.42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">ROUND((K14/784)*100,2)</f>
+        <v>74.87</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">ROUND((K15/784)*100,2)</f>
+        <v>72.07</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <f aca="false">ROUND((K22/784)*100,2)</f>
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <f aca="false">ROUND((K23/784)*100,2)</f>
+        <v>81.51</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="D24" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="G24" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <f aca="false">ROUND((K24/784)*100,2)</f>
+        <v>77.42</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="G25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <f aca="false">ROUND((K25/784)*100,2)</f>
+        <v>72.96</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="G26" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <f aca="false">ROUND((K26/784)*100,2)</f>
+        <v>67.98</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="M27" s="1" t="n">
+        <f aca="false">ROUND((K27/784)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="M28" s="1" t="n">
+        <f aca="false">ROUND((K28/784)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="G29" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <f aca="false">ROUND((K29/784)*100,2)</f>
+        <v>79.21</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="D30" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="G30" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <f aca="false">ROUND((K30/784)*100,2)</f>
+        <v>75.51</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="M31" s="1" t="n">
+        <f aca="false">ROUND((K31/784)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="D32" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="G32" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <f aca="false">ROUND((K32/784)*100,2)</f>
+        <v>79.72</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <f aca="false">ROUND((K33/784)*100,2)</f>
+        <v>77.81</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
@@ -2553,7 +5100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2561,7 +5108,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2574,7 +5121,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
@@ -3146,7 +5693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3154,7 +5701,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
+      <selection pane="topLeft" activeCell="Q19" activeCellId="0" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3167,7 +5714,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
@@ -3777,486 +6324,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M21"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="1" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="D7" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <f aca="false">(K7/400)*100</f>
-        <v>96.5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <f aca="false">(K8/400)*100</f>
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <f aca="false">(K9/400)*100</f>
-        <v>90.25</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <f aca="false">(K10/400)*100</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <f aca="false">(K11/400)*100</f>
-        <v>85.75</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="G12" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <f aca="false">(K12/400)*100</f>
-        <v>80.75</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="G13" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <f aca="false">(K13/400)*100</f>
-        <v>83.25</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="D14" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="G14" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <f aca="false">(K14/400)*100</f>
-        <v>83.25</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="D15" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="G15" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <f aca="false">(K15/400)*100</f>
-        <v>80.25</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="G16" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <f aca="false">(K16/400)*100</f>
-        <v>76.75</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="D17" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="G17" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <f aca="false">(K17/400)*100</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="G18" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <f aca="false">(K18/400)*100</f>
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="D19" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="G19" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <f aca="false">(K19/400)*100</f>
-        <v>74.25</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="D20" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="G20" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <f aca="false">(K20/400)*100</f>
-        <v>70.5</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="D21" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="G21" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <f aca="false">(K21/400)*100</f>
-        <v>71.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/bott index quasicrystal.xlsx
+++ b/bott index quasicrystal.xlsx
@@ -2273,7 +2273,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2381,14 +2381,20 @@
       <c r="G8" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>1068</v>
+      </c>
       <c r="M8" s="1" t="n">
         <f aca="false">ROUND((K8/1296)*100,2)</f>
-        <v>0</v>
+        <v>82.41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2"/>
       <c r="D9" s="2" t="n">
@@ -2398,14 +2404,20 @@
       <c r="G9" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>1028</v>
+      </c>
       <c r="M9" s="1" t="n">
         <f aca="false">ROUND((K9/1296)*100,2)</f>
-        <v>0</v>
+        <v>79.32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2"/>
       <c r="D10" s="2" t="n">
@@ -2415,14 +2427,20 @@
       <c r="G10" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>985</v>
+      </c>
       <c r="M10" s="1" t="n">
         <f aca="false">ROUND((K10/1296)*100,2)</f>
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="D11" s="2" t="n">
@@ -2432,14 +2450,20 @@
       <c r="G11" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>938</v>
+      </c>
       <c r="M11" s="1" t="n">
         <f aca="false">ROUND((K11/1296)*100,2)</f>
-        <v>0</v>
+        <v>72.38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
       <c r="D12" s="2" t="n">
@@ -2449,14 +2473,20 @@
       <c r="G12" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>889</v>
+      </c>
       <c r="M12" s="1" t="n">
         <f aca="false">ROUND((K12/1296)*100,2)</f>
-        <v>0</v>
+        <v>68.6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2"/>
       <c r="D13" s="2" t="n">
@@ -2473,7 +2503,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2"/>
       <c r="D14" s="2" t="n">
@@ -2489,9 +2519,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="n">
+        <v>17</v>
+      </c>
       <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="n">
+        <v>-3</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="M15" s="1" t="n">
         <f aca="false">ROUND((K15/1296)*100,2)</f>

--- a/bott index quasicrystal.xlsx
+++ b/bott index quasicrystal.xlsx
@@ -2273,7 +2273,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2959,7 +2959,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3673,7 +3673,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4363,7 +4363,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5142,7 +5142,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/bott index quasicrystal.xlsx
+++ b/bott index quasicrystal.xlsx
@@ -11,13 +11,18 @@
     <sheet name="Fixed quasicrystal" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="20x20" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="30x30" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="PBC 36x36" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="PBC 30x30" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="PBC 28x28" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="PBC 26x26" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="PBC 24x24" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="PBC 22x22" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="PBC 20x20" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="PBC 40x40" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="PBC 38x38" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="PBC 36x36" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="PBC 32x32" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="PBC 30x30" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="PBC 28x28" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="PBC 26x26" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="PBC 24x24" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="PBC 22x22" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="PBC 20x20" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Sheet12" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Sheet15" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="27">
   <si>
     <t xml:space="preserve">The two lines are fixed, and the system size is varied</t>
   </si>
@@ -85,10 +90,16 @@
     <t xml:space="preserve">oscillations</t>
   </si>
   <si>
+    <t xml:space="preserve">40x40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PBC</t>
+  </si>
+  <si>
     <t xml:space="preserve">36x36</t>
   </si>
   <si>
-    <t xml:space="preserve">PBC</t>
+    <t xml:space="preserve">32x32</t>
   </si>
   <si>
     <t xml:space="preserve">28x28</t>
@@ -102,6 +113,9 @@
   <si>
     <t xml:space="preserve">22x22</t>
   </si>
+  <si>
+    <t xml:space="preserve">45x45</t>
+  </si>
 </sst>
 </file>
 
@@ -110,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -131,6 +145,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,7 +196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,6 +217,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -205,6 +238,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -459,6 +552,2011 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">ROUND((K7/676)*100,2)</f>
+        <v>91.86</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">ROUND((K8/676)*100,2)</f>
+        <v>90.68</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/676)*100,2)</f>
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/676)*100,2)</f>
+        <v>87.43</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">ROUND((K11/676)*100,2)</f>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">ROUND((K12/676)*100,2)</f>
+        <v>83.28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">ROUND((K13/676)*100,2)</f>
+        <v>80.92</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">ROUND((K14/676)*100,2)</f>
+        <v>78.25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">ROUND((K15/676)*100,2)</f>
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">ROUND((K16/676)*100,2)</f>
+        <v>72.19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="G17" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">ROUND((K17/676)*100,2)</f>
+        <v>68.79</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">ROUND((K18/676)*100,2)</f>
+        <v>65.09</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">ROUND((K19/676)*100,2)</f>
+        <v>61.24</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <f aca="false">ROUND((K23/676)*100,2)</f>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="24" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="D24" s="5" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="G24" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6" t="n">
+        <v>551</v>
+      </c>
+      <c r="M24" s="6" t="n">
+        <f aca="false">ROUND((K24/676)*100,2)</f>
+        <v>81.51</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="G25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <f aca="false">ROUND((K25/676)*100,2)</f>
+        <v>77.07</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="G26" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <f aca="false">ROUND((K26/676)*100,2)</f>
+        <v>72.19</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="G27" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <f aca="false">ROUND((K27/676)*100,2)</f>
+        <v>66.86</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="G28" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <f aca="false">ROUND((K28/676)*100,2)</f>
+        <v>60.95</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="G31" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <f aca="false">ROUND((K31/676)*100,2)</f>
+        <v>79.59</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="D32" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="G32" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <f aca="false">ROUND((K32/676)*100,2)</f>
+        <v>77.37</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="D34" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="G34" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <f aca="false">ROUND((K34/676)*100,2)</f>
+        <v>78.99</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="D35" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="G35" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <f aca="false">ROUND((K35/676)*100,2)</f>
+        <v>74.85</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="78">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">ROUND((K7/576)*100,2)</f>
+        <v>95.14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">ROUND((K8/576)*100,2)</f>
+        <v>92.53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/576)*100,2)</f>
+        <v>89.41</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/576)*100,2)</f>
+        <v>85.59</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>469</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <f aca="false">ROUND((K11/576)*100,2)</f>
+        <v>81.42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">ROUND((K12/576)*100,2)</f>
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">ROUND((K13/576)*100,2)</f>
+        <v>71.18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">ROUND((K15/576)*100,2)</f>
+        <v>78.82</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">ROUND((K16/576)*100,2)</f>
+        <v>75.87</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="G17" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">ROUND((K17/576)*100,2)</f>
+        <v>73.61</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">ROUND((K19/576)*100,2)</f>
+        <v>79.17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">ROUND((K20/576)*100,2)</f>
+        <v>76.74</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">ROUND((K21/576)*100,2)</f>
+        <v>73.96</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <f aca="false">ROUND((K22/576)*100,2)</f>
+        <v>70.83</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="D24" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="G24" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <f aca="false">ROUND((K24/576)*100,2)</f>
+        <v>74.13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="G25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <f aca="false">ROUND((K25/576)*100,2)</f>
+        <v>71.35</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="G27" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <f aca="false">ROUND((K27/576)*100,2)</f>
+        <v>65.28</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M36"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">ROUND((K7/484)*100,2)</f>
+        <v>93.18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">ROUND((K8/484)*100,2)</f>
+        <v>89.67</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/484)*100,2)</f>
+        <v>85.74</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/484)*100,2)</f>
+        <v>80.99</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">ROUND((K11/484)*100,2)</f>
+        <v>75.83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">ROUND((K12/484)*100,2)</f>
+        <v>69.83</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">ROUND((K13/484)*100,2)</f>
+        <v>63.02</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">ROUND((K14/484)*100,2)</f>
+        <v>55.79</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">ROUND((K16/484)*100,2)</f>
+        <v>78.51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="G17" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">ROUND((K17/484)*100,2)</f>
+        <v>75.62</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">ROUND((K18/484)*100,2)</f>
+        <v>72.31</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">ROUND((K19/484)*100,2)</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">ROUND((K20/484)*100,2)</f>
+        <v>64.88</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="D22" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="G22" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6" t="n">
+        <v>379</v>
+      </c>
+      <c r="M22" s="6" t="n">
+        <f aca="false">ROUND((K22/484)*100,2)</f>
+        <v>78.31</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <f aca="false">ROUND((K23/484)*100,2)</f>
+        <v>72.93</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="D24" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="G24" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <f aca="false">ROUND((K24/484)*100,2)</f>
+        <v>69.63</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="G25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <f aca="false">ROUND((K25/484)*100,2)</f>
+        <v>66.12</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="G27" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <f aca="false">ROUND((K27/484)*100,2)</f>
+        <v>66.53</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="65">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -930,6 +3028,722 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="D21:E21"/>
   </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>1150</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">ROUND((K7/2025)*100,2)</f>
+        <v>56.79</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">ROUND((K8/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">ROUND((K11/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">ROUND((K12/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">ROUND((K13/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">ROUND((K14/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="M15" s="1" t="n">
+        <f aca="false">ROUND((K15/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="M16" s="1" t="n">
+        <f aca="false">ROUND((K16/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="M17" s="1" t="n">
+        <f aca="false">ROUND((K17/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">ROUND((K18/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">ROUND((K19/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">ROUND((K20/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">ROUND((K21/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <f aca="false">ROUND((K22/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <f aca="false">ROUND((K23/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="1" t="n">
+        <f aca="false">ROUND((K24/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="1" t="n">
+        <f aca="false">ROUND((K25/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="1" t="n">
+        <f aca="false">ROUND((K26/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="1" t="n">
+        <f aca="false">ROUND((K27/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="M28" s="1" t="n">
+        <f aca="false">ROUND((K28/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="M29" s="1" t="n">
+        <f aca="false">ROUND((K29/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <f aca="false">ROUND((K30/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <f aca="false">ROUND((K31/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="M32" s="1" t="n">
+        <f aca="false">ROUND((K32/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <f aca="false">ROUND((K33/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <f aca="false">ROUND((K34/1296)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:C10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <f aca="false">1/A2</f>
+        <v>0.0454545454545455</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>78.31</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">1/A3</f>
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>81.42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <f aca="false">1/A4</f>
+        <v>0.0384615384615385</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>81.51</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <f aca="false">1/A5</f>
+        <v>0.0357142857142857</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>79.72</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">1/A6</f>
+        <v>0.0333333333333333</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>78.33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">1/A7</f>
+        <v>0.03125</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>82.32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">1/A8</f>
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>78.94</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">1/A9</f>
+        <v>0.0263157894736842</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>76.39</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">1/A10</f>
+        <v>0.025</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>82.44</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2270,10 +5084,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2348,6 +5162,1334 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">ROUND((K7/1600)*100,2)</f>
+        <v>62.94</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>1275</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/1600)*100,2)</f>
+        <v>79.69</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>1397</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">ROUND((K13/1600)*100,2)</f>
+        <v>87.31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>1359</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">ROUND((K14/1600)*100,2)</f>
+        <v>84.94</v>
+      </c>
+    </row>
+    <row r="15" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="G15" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1319</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <f aca="false">ROUND((K15/1600)*100,2)</f>
+        <v>82.44</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>1275</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">ROUND((K16/1600)*100,2)</f>
+        <v>79.69</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>1342</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">ROUND((K18/1600)*100,2)</f>
+        <v>83.88</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>1323</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">ROUND((K19/1600)*100,2)</f>
+        <v>82.69</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>1336</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">ROUND((K20/1600)*100,2)</f>
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>1311</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">ROUND((K21/1600)*100,2)</f>
+        <v>81.94</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>1285</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <f aca="false">ROUND((K22/1600)*100,2)</f>
+        <v>80.31</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>1257</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <f aca="false">ROUND((K23/1600)*100,2)</f>
+        <v>78.56</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="G25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>1228</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <f aca="false">ROUND((K25/1600)*100,2)</f>
+        <v>76.75</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="G26" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>1178</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <f aca="false">ROUND((K26/1600)*100,2)</f>
+        <v>73.63</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="G27" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <f aca="false">ROUND((K27/1600)*100,2)</f>
+        <v>70.25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="73">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M47"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P22" activeCellId="0" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <f aca="false">38*38</f>
+        <v>1444</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="M8" s="1" t="n">
+        <f aca="false">ROUND((K8/1444)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/1444)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/1444)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="M11" s="1" t="n">
+        <f aca="false">ROUND((K11/1444)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="M12" s="1" t="n">
+        <f aca="false">ROUND((K12/1444)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>1264</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">ROUND((K14/1444)*100,2)</f>
+        <v>87.53</v>
+      </c>
+    </row>
+    <row r="15" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>1229</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">ROUND((K15/1444)*100,2)</f>
+        <v>85.11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">ROUND((K16/1444)*100,2)</f>
+        <v>82.41</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="G17" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>1148</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">ROUND((K17/1444)*100,2)</f>
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="18" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="D18" s="5" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="G18" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="n">
+        <v>1103</v>
+      </c>
+      <c r="M18" s="6" t="n">
+        <f aca="false">ROUND((K18/1444)*100,2)</f>
+        <v>76.39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">ROUND((K19/1444)*100,2)</f>
+        <v>78.12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>1106</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">ROUND((K20/1444)*100,2)</f>
+        <v>76.59</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="M21" s="1" t="n">
+        <f aca="false">ROUND((K21/1444)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <f aca="false">ROUND((K22/1444)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <f aca="false">ROUND((K23/1444)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="D24" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="G24" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <f aca="false">ROUND((K24/1444)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="G25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <f aca="false">ROUND((K25/1444)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="G26" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <f aca="false">ROUND((K26/1444)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="G27" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <f aca="false">ROUND((K27/1444)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="M28" s="1" t="n">
+        <f aca="false">ROUND((K28/1444)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="G29" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <f aca="false">ROUND((K29/1444)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="D30" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="G30" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <f aca="false">ROUND((K30/1444)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="G31" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <f aca="false">ROUND((K31/1444)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="81">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M48"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <f aca="false">36*36</f>
+        <v>1296</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>25</v>
       </c>
       <c r="B7" s="2"/>
@@ -2417,7 +6559,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2"/>
       <c r="D10" s="2" t="n">
@@ -2428,19 +6570,19 @@
         <v>1.5</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>985</v>
+        <v>1008</v>
       </c>
       <c r="M10" s="1" t="n">
         <f aca="false">ROUND((K10/1296)*100,2)</f>
-        <v>76</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2"/>
       <c r="D11" s="2" t="n">
@@ -2451,19 +6593,19 @@
         <v>1.5</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>938</v>
+        <v>986</v>
       </c>
       <c r="M11" s="1" t="n">
         <f aca="false">ROUND((K11/1296)*100,2)</f>
-        <v>72.38</v>
+        <v>76.08</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2"/>
       <c r="D12" s="2" t="n">
@@ -2477,16 +6619,1366 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>889</v>
+        <v>963</v>
       </c>
       <c r="M12" s="1" t="n">
         <f aca="false">ROUND((K12/1296)*100,2)</f>
-        <v>68.6</v>
+        <v>74.31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">ROUND((K13/1296)*100,2)</f>
+        <v>80.25</v>
+      </c>
+    </row>
+    <row r="14" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="G14" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>1023</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <f aca="false">ROUND((K14/1296)*100,2)</f>
+        <v>78.94</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">ROUND((K15/1296)*100,2)</f>
+        <v>77.62</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">ROUND((K16/1296)*100,2)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="G17" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">ROUND((K17/1296)*100,2)</f>
+        <v>72.38</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">ROUND((K18/1296)*100,2)</f>
+        <v>68.6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="84">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <f aca="false">32*32</f>
+        <v>1024</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">ROUND((K7/1024)*100,2)</f>
+        <v>90.92</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">ROUND((K8/1024)*100,2)</f>
+        <v>88.87</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/1024)*100,2)</f>
+        <v>85.55</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/1024)*100,2)</f>
+        <v>83.98</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">ROUND((K11/1024)*100,2)</f>
+        <v>82.23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">ROUND((K12/1024)*100,2)</f>
+        <v>80.37</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">ROUND((K14/1024)*100,2)</f>
+        <v>86.52</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">ROUND((K15/1024)*100,2)</f>
+        <v>85.25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">ROUND((K16/1024)*100,2)</f>
+        <v>83.89</v>
+      </c>
+    </row>
+    <row r="17" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="G17" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6" t="n">
+        <v>843</v>
+      </c>
+      <c r="M17" s="6" t="n">
+        <f aca="false">ROUND((K17/1024)*100,2)</f>
+        <v>82.32</v>
+      </c>
+    </row>
+    <row r="18" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>825</v>
+      </c>
+      <c r="M18" s="7" t="n">
+        <f aca="false">ROUND((K18/1024)*100,2)</f>
+        <v>80.57</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">ROUND((K19/1024)*100,2)</f>
+        <v>78.81</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">ROUND((K20/1024)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="86">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <v>900</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">ROUND((K7/900)*100,2)</f>
+        <v>84.89</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">ROUND((K8/900)*100,2)</f>
+        <v>81.56</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/900)*100,2)</f>
+        <v>79.33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/900)*100,2)</f>
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">ROUND((K11/900)*100,2)</f>
+        <v>73.56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">ROUND((K12/900)*100,2)</f>
+        <v>69.11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>15</v>
       </c>
       <c r="B13" s="2"/>
       <c r="D13" s="2" t="n">
@@ -2496,14 +7988,20 @@
       <c r="G13" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>578</v>
+      </c>
       <c r="M13" s="1" t="n">
-        <f aca="false">ROUND((K13/1296)*100,2)</f>
-        <v>0</v>
+        <f aca="false">ROUND((K13/900)*100,2)</f>
+        <v>64.22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2"/>
       <c r="D14" s="2" t="n">
@@ -2513,44 +8011,34 @@
       <c r="G14" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>532</v>
+      </c>
       <c r="M14" s="1" t="n">
-        <f aca="false">ROUND((K14/1296)*100,2)</f>
-        <v>0</v>
+        <f aca="false">ROUND((K14/900)*100,2)</f>
+        <v>59.11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>17</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="D15" s="2" t="n">
-        <v>-3</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="M15" s="1" t="n">
-        <f aca="false">ROUND((K15/1296)*100,2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="M16" s="1" t="n">
-        <f aca="false">ROUND((K16/1296)*100,2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="M17" s="1" t="n">
-        <f aca="false">ROUND((K17/1296)*100,2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
@@ -2564,9 +8052,15 @@
       <c r="G18" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>752</v>
+      </c>
       <c r="M18" s="1" t="n">
-        <f aca="false">ROUND((K18/1296)*100,2)</f>
-        <v>0</v>
+        <f aca="false">ROUND((K18/900)*100,2)</f>
+        <v>83.56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,9 +8075,15 @@
       <c r="G19" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>738</v>
+      </c>
       <c r="M19" s="1" t="n">
-        <f aca="false">ROUND((K19/1296)*100,2)</f>
-        <v>0</v>
+        <f aca="false">ROUND((K19/900)*100,2)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,26 +8098,38 @@
       <c r="G20" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>722</v>
+      </c>
       <c r="M20" s="1" t="n">
-        <f aca="false">ROUND((K20/1296)*100,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+        <f aca="false">ROUND((K20/900)*100,2)</f>
+        <v>80.22</v>
+      </c>
+    </row>
+    <row r="21" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="D21" s="2" t="n">
+      <c r="B21" s="5"/>
+      <c r="D21" s="5" t="n">
         <v>-6</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="G21" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <f aca="false">ROUND((K21/1296)*100,2)</f>
-        <v>0</v>
+      <c r="E21" s="5"/>
+      <c r="G21" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>705</v>
+      </c>
+      <c r="M21" s="6" t="n">
+        <f aca="false">ROUND((K21/900)*100,2)</f>
+        <v>78.33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,9 +8144,15 @@
       <c r="G22" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>686</v>
+      </c>
       <c r="M22" s="1" t="n">
-        <f aca="false">ROUND((K22/1296)*100,2)</f>
-        <v>0</v>
+        <f aca="false">ROUND((K22/900)*100,2)</f>
+        <v>76.22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,9 +8167,15 @@
       <c r="G23" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>666</v>
+      </c>
       <c r="M23" s="1" t="n">
-        <f aca="false">ROUND((K23/1296)*100,2)</f>
-        <v>0</v>
+        <f aca="false">ROUND((K23/900)*100,2)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2667,10 +8191,6 @@
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
-      <c r="M24" s="1" t="n">
-        <f aca="false">ROUND((K24/1296)*100,2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
@@ -2685,10 +8205,6 @@
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
-      <c r="M25" s="1" t="n">
-        <f aca="false">ROUND((K25/1296)*100,2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
@@ -2703,10 +8219,6 @@
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
-      <c r="M26" s="1" t="n">
-        <f aca="false">ROUND((K26/1296)*100,2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
@@ -2721,30 +8233,18 @@
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
-      <c r="M27" s="1" t="n">
-        <f aca="false">ROUND((K27/1296)*100,2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="M28" s="1" t="n">
-        <f aca="false">ROUND((K28/1296)*100,2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="M29" s="1" t="n">
-        <f aca="false">ROUND((K29/1296)*100,2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
@@ -2758,9 +8258,15 @@
       <c r="G30" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>678</v>
+      </c>
       <c r="M30" s="1" t="n">
-        <f aca="false">ROUND((K30/1296)*100,2)</f>
-        <v>0</v>
+        <f aca="false">ROUND((K30/900)*100,2)</f>
+        <v>75.33</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,9 +8281,15 @@
       <c r="G31" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>645</v>
+      </c>
       <c r="M31" s="1" t="n">
-        <f aca="false">ROUND((K31/1296)*100,2)</f>
-        <v>0</v>
+        <f aca="false">ROUND((K31/900)*100,2)</f>
+        <v>71.67</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,10 +8297,6 @@
       <c r="B32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="M32" s="1" t="n">
-        <f aca="false">ROUND((K32/1296)*100,2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
@@ -2802,9 +8310,15 @@
       <c r="G33" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>684</v>
+      </c>
       <c r="M33" s="1" t="n">
-        <f aca="false">ROUND((K33/1296)*100,2)</f>
-        <v>0</v>
+        <f aca="false">ROUND((K33/900)*100,2)</f>
+        <v>76</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,9 +8333,15 @@
       <c r="G34" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="I34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>667</v>
+      </c>
       <c r="M34" s="1" t="n">
-        <f aca="false">ROUND((K34/1296)*100,2)</f>
-        <v>0</v>
+        <f aca="false">ROUND((K34/900)*100,2)</f>
+        <v>74.11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,15 +8471,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2972,12 +8492,15 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="4" t="n">
+        <f aca="false">28*28</f>
+        <v>784</v>
+      </c>
       <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3048,16 +8571,16 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>764</v>
+        <v>693</v>
       </c>
       <c r="M7" s="1" t="n">
-        <f aca="false">ROUND((K7/900)*100,2)</f>
-        <v>84.89</v>
+        <f aca="false">ROUND((K7/784)*100,2)</f>
+        <v>88.39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2"/>
       <c r="D8" s="2" t="n">
@@ -3071,720 +8594,6 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <f aca="false">ROUND((K8/900)*100,2)</f>
-        <v>81.56</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>714</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <f aca="false">ROUND((K9/900)*100,2)</f>
-        <v>79.33</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>700</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <f aca="false">ROUND((K10/900)*100,2)</f>
-        <v>77.78</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>662</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <f aca="false">ROUND((K11/900)*100,2)</f>
-        <v>73.56</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="G12" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>622</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <f aca="false">ROUND((K12/900)*100,2)</f>
-        <v>69.11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="G13" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <f aca="false">ROUND((K13/900)*100,2)</f>
-        <v>64.22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="D14" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="G14" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <f aca="false">ROUND((K14/900)*100,2)</f>
-        <v>59.11</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="D18" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="G18" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>752</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <f aca="false">ROUND((K18/900)*100,2)</f>
-        <v>83.56</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="D19" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="G19" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <f aca="false">ROUND((K19/900)*100,2)</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="D20" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="G20" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>722</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <f aca="false">ROUND((K20/900)*100,2)</f>
-        <v>80.22</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="D21" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="G21" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>705</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <f aca="false">ROUND((K21/900)*100,2)</f>
-        <v>78.33</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="D22" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="G22" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>686</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <f aca="false">ROUND((K22/900)*100,2)</f>
-        <v>76.22</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="D23" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="G23" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>666</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <f aca="false">ROUND((K23/900)*100,2)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="D30" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="G30" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="M30" s="1" t="n">
-        <f aca="false">ROUND((K30/900)*100,2)</f>
-        <v>75.33</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="D31" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="G31" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1" t="n">
-        <v>645</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <f aca="false">ROUND((K31/900)*100,2)</f>
-        <v>71.67</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>684</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <f aca="false">ROUND((K33/900)*100,2)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="D34" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="G34" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1" t="n">
-        <v>667</v>
-      </c>
-      <c r="M34" s="1" t="n">
-        <f aca="false">ROUND((K34/900)*100,2)</f>
-        <v>74.11</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M41"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="D7" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>693</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <f aca="false">ROUND((K7/784)*100,2)</f>
-        <v>88.39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="n">
         <v>683</v>
       </c>
       <c r="M8" s="1" t="n">
@@ -3861,25 +8670,25 @@
         <v>81.89</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2" t="n">
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="n">
         <v>-5</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="G12" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="n">
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="n">
         <v>625</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="M12" s="6" t="n">
         <f aca="false">ROUND((K12/784)*100,2)</f>
         <v>79.72</v>
       </c>
@@ -4353,2009 +9162,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M43"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="D7" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>621</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <f aca="false">ROUND((K7/676)*100,2)</f>
-        <v>91.86</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <f aca="false">ROUND((K8/676)*100,2)</f>
-        <v>90.68</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <f aca="false">ROUND((K9/676)*100,2)</f>
-        <v>89.2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <f aca="false">ROUND((K10/676)*100,2)</f>
-        <v>87.43</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <f aca="false">ROUND((K11/676)*100,2)</f>
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="G12" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>563</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <f aca="false">ROUND((K12/676)*100,2)</f>
-        <v>83.28</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="G13" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <f aca="false">ROUND((K13/676)*100,2)</f>
-        <v>80.92</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="D14" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="G14" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <f aca="false">ROUND((K14/676)*100,2)</f>
-        <v>78.25</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="D15" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="G15" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>509</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <f aca="false">ROUND((K15/676)*100,2)</f>
-        <v>75.3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="G16" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <f aca="false">ROUND((K16/676)*100,2)</f>
-        <v>72.19</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="G17" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <f aca="false">ROUND((K17/676)*100,2)</f>
-        <v>68.79</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="D18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="G18" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <f aca="false">ROUND((K18/676)*100,2)</f>
-        <v>65.09</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="D19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="G19" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <f aca="false">ROUND((K19/676)*100,2)</f>
-        <v>61.24</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="D23" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="G23" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <f aca="false">ROUND((K23/676)*100,2)</f>
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="D24" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="G24" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <f aca="false">ROUND((K24/676)*100,2)</f>
-        <v>81.51</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="D25" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="G25" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>521</v>
-      </c>
-      <c r="M25" s="1" t="n">
-        <f aca="false">ROUND((K25/676)*100,2)</f>
-        <v>77.07</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="D26" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="G26" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <f aca="false">ROUND((K26/676)*100,2)</f>
-        <v>72.19</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="D27" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="G27" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <f aca="false">ROUND((K27/676)*100,2)</f>
-        <v>66.86</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="D28" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="G28" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <f aca="false">ROUND((K28/676)*100,2)</f>
-        <v>60.95</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="D31" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="G31" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <f aca="false">ROUND((K31/676)*100,2)</f>
-        <v>79.59</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="D32" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="G32" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1" t="n">
-        <v>523</v>
-      </c>
-      <c r="M32" s="1" t="n">
-        <f aca="false">ROUND((K32/676)*100,2)</f>
-        <v>77.37</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="D34" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="G34" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="M34" s="1" t="n">
-        <f aca="false">ROUND((K34/676)*100,2)</f>
-        <v>78.99</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="D35" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="G35" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <v>506</v>
-      </c>
-      <c r="M35" s="1" t="n">
-        <f aca="false">ROUND((K35/676)*100,2)</f>
-        <v>74.85</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:E43"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M32"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="D7" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <f aca="false">ROUND((K7/576)*100,2)</f>
-        <v>95.14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <f aca="false">ROUND((K8/576)*100,2)</f>
-        <v>92.53</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>515</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <f aca="false">ROUND((K9/576)*100,2)</f>
-        <v>89.41</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>493</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <f aca="false">ROUND((K10/576)*100,2)</f>
-        <v>85.59</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <f aca="false">ROUND((K11/576)*100,2)</f>
-        <v>81.42</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="G12" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <f aca="false">ROUND((K12/576)*100,2)</f>
-        <v>76.56</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="G13" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <f aca="false">ROUND((K13/576)*100,2)</f>
-        <v>71.18</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="D15" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="G15" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <f aca="false">ROUND((K15/576)*100,2)</f>
-        <v>78.82</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="G16" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <f aca="false">ROUND((K16/576)*100,2)</f>
-        <v>75.87</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="D17" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="G17" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <f aca="false">ROUND((K17/576)*100,2)</f>
-        <v>73.61</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="D19" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="G19" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <f aca="false">ROUND((K19/576)*100,2)</f>
-        <v>79.17</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="D20" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="G20" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <f aca="false">ROUND((K20/576)*100,2)</f>
-        <v>76.74</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="D21" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="G21" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <f aca="false">ROUND((K21/576)*100,2)</f>
-        <v>73.96</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="D22" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="G22" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <f aca="false">ROUND((K22/576)*100,2)</f>
-        <v>70.83</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="D24" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="G24" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <f aca="false">ROUND((K24/576)*100,2)</f>
-        <v>74.13</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="D25" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="G25" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="M25" s="1" t="n">
-        <f aca="false">ROUND((K25/576)*100,2)</f>
-        <v>71.35</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="D27" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="G27" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <f aca="false">ROUND((K27/576)*100,2)</f>
-        <v>65.28</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M36"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q19" activeCellId="0" sqref="Q19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="D7" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <f aca="false">ROUND((K7/484)*100,2)</f>
-        <v>93.18</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <f aca="false">ROUND((K8/484)*100,2)</f>
-        <v>89.67</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <f aca="false">ROUND((K9/484)*100,2)</f>
-        <v>85.74</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <f aca="false">ROUND((K10/484)*100,2)</f>
-        <v>80.99</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <f aca="false">ROUND((K11/484)*100,2)</f>
-        <v>75.83</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="G12" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <f aca="false">ROUND((K12/484)*100,2)</f>
-        <v>69.83</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="G13" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <f aca="false">ROUND((K13/484)*100,2)</f>
-        <v>63.02</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="D14" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="G14" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <f aca="false">ROUND((K14/484)*100,2)</f>
-        <v>55.79</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="G16" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <f aca="false">ROUND((K16/484)*100,2)</f>
-        <v>78.51</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="D17" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="G17" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <f aca="false">ROUND((K17/484)*100,2)</f>
-        <v>75.62</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="D18" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="G18" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <f aca="false">ROUND((K18/484)*100,2)</f>
-        <v>72.31</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="D19" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="G19" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <f aca="false">ROUND((K19/484)*100,2)</f>
-        <v>68.8</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="D20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="G20" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <f aca="false">ROUND((K20/484)*100,2)</f>
-        <v>64.88</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="D22" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="G22" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <f aca="false">ROUND((K22/484)*100,2)</f>
-        <v>78.31</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="D23" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="G23" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <f aca="false">ROUND((K23/484)*100,2)</f>
-        <v>72.93</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="D24" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="G24" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <f aca="false">ROUND((K24/484)*100,2)</f>
-        <v>69.63</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="D25" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="G25" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="M25" s="1" t="n">
-        <f aca="false">ROUND((K25/484)*100,2)</f>
-        <v>66.12</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="D27" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="G27" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <f aca="false">ROUND((K27/484)*100,2)</f>
-        <v>66.53</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/bott index quasicrystal.xlsx
+++ b/bott index quasicrystal.xlsx
@@ -5,24 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Fixed quasicrystal" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="20x20" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="30x30" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="PBC 40x40" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="PBC 38x38" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="PBC 36x36" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="PBC 32x32" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="PBC 30x30" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="PBC 28x28" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="PBC 26x26" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="PBC 24x24" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="PBC 22x22" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="PBC 20x20" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Sheet12" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Sheet15" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="PBC 45x45" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="PBC 40x40" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="PBC 38x38" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="PBC 36x36" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="PBC 32x32" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="PBC 30x30" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="PBC 28x28" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="PBC 26x26" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="PBC 24x24" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="PBC 22x22" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="PBC 20x20" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Sheet15" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="26">
   <si>
     <t xml:space="preserve">The two lines are fixed, and the system size is varied</t>
   </si>
@@ -78,6 +76,12 @@
     <t xml:space="preserve">system size</t>
   </si>
   <si>
+    <t xml:space="preserve">45x45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PBC</t>
+  </si>
+  <si>
     <t xml:space="preserve">number of sites</t>
   </si>
   <si>
@@ -87,13 +91,7 @@
     <t xml:space="preserve">in quasicrystal</t>
   </si>
   <si>
-    <t xml:space="preserve">oscillations</t>
-  </si>
-  <si>
     <t xml:space="preserve">40x40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PBC</t>
   </si>
   <si>
     <t xml:space="preserve">36x36</t>
@@ -113,9 +111,6 @@
   <si>
     <t xml:space="preserve">22x22</t>
   </si>
-  <si>
-    <t xml:space="preserve">45x45</t>
-  </si>
 </sst>
 </file>
 
@@ -124,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -149,6 +144,20 @@
     <font>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF3838"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFF10D0C"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -196,7 +205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,6 +238,22 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,7 +267,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFF10D0C"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -285,7 +310,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF3838"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -309,7 +334,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -556,10 +581,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -572,17 +597,17 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4"/>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -644,20 +669,17 @@
       <c r="G7" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K7" s="1" t="n">
-        <v>621</v>
+        <v>548</v>
       </c>
       <c r="M7" s="1" t="n">
-        <f aca="false">ROUND((K7/676)*100,2)</f>
-        <v>91.86</v>
+        <f aca="false">ROUND((K7/576)*100,2)</f>
+        <v>95.14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2"/>
       <c r="D8" s="2" t="n">
@@ -667,20 +689,17 @@
       <c r="G8" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K8" s="1" t="n">
-        <v>613</v>
+        <v>533</v>
       </c>
       <c r="M8" s="1" t="n">
-        <f aca="false">ROUND((K8/676)*100,2)</f>
-        <v>90.68</v>
+        <f aca="false">ROUND((K8/576)*100,2)</f>
+        <v>92.53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="D9" s="2" t="n">
@@ -690,20 +709,17 @@
       <c r="G9" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K9" s="1" t="n">
-        <v>603</v>
+        <v>515</v>
       </c>
       <c r="M9" s="1" t="n">
-        <f aca="false">ROUND((K9/676)*100,2)</f>
-        <v>89.2</v>
+        <f aca="false">ROUND((K9/576)*100,2)</f>
+        <v>89.41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="D10" s="2" t="n">
@@ -713,43 +729,37 @@
       <c r="G10" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K10" s="1" t="n">
-        <v>591</v>
+        <v>493</v>
       </c>
       <c r="M10" s="1" t="n">
-        <f aca="false">ROUND((K10/676)*100,2)</f>
-        <v>87.43</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2" t="n">
+        <f aca="false">ROUND((K10/576)*100,2)</f>
+        <v>85.59</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="n">
         <v>-6</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <f aca="false">ROUND((K11/676)*100,2)</f>
-        <v>85.5</v>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>469</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <f aca="false">ROUND((K11/576)*100,2)</f>
+        <v>81.42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2"/>
       <c r="D12" s="2" t="n">
@@ -759,20 +769,17 @@
       <c r="G12" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I12" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K12" s="1" t="n">
-        <v>563</v>
+        <v>441</v>
       </c>
       <c r="M12" s="1" t="n">
-        <f aca="false">ROUND((K12/676)*100,2)</f>
-        <v>83.28</v>
+        <f aca="false">ROUND((K12/576)*100,2)</f>
+        <v>76.56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2"/>
       <c r="D13" s="2" t="n">
@@ -781,788 +788,6 @@
       <c r="E13" s="2"/>
       <c r="G13" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <f aca="false">ROUND((K13/676)*100,2)</f>
-        <v>80.92</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="D14" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="G14" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <f aca="false">ROUND((K14/676)*100,2)</f>
-        <v>78.25</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="D15" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="G15" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>509</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <f aca="false">ROUND((K15/676)*100,2)</f>
-        <v>75.3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="G16" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <f aca="false">ROUND((K16/676)*100,2)</f>
-        <v>72.19</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="G17" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <f aca="false">ROUND((K17/676)*100,2)</f>
-        <v>68.79</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="D18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="G18" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <f aca="false">ROUND((K18/676)*100,2)</f>
-        <v>65.09</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="D19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="G19" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <f aca="false">ROUND((K19/676)*100,2)</f>
-        <v>61.24</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="D23" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="G23" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <f aca="false">ROUND((K23/676)*100,2)</f>
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="24" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="D24" s="5" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="G24" s="6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6" t="n">
-        <v>551</v>
-      </c>
-      <c r="M24" s="6" t="n">
-        <f aca="false">ROUND((K24/676)*100,2)</f>
-        <v>81.51</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="D25" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="G25" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>521</v>
-      </c>
-      <c r="M25" s="1" t="n">
-        <f aca="false">ROUND((K25/676)*100,2)</f>
-        <v>77.07</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="D26" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="G26" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <f aca="false">ROUND((K26/676)*100,2)</f>
-        <v>72.19</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="D27" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="G27" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <f aca="false">ROUND((K27/676)*100,2)</f>
-        <v>66.86</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="D28" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="G28" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <f aca="false">ROUND((K28/676)*100,2)</f>
-        <v>60.95</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="D31" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="G31" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <f aca="false">ROUND((K31/676)*100,2)</f>
-        <v>79.59</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="D32" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="G32" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1" t="n">
-        <v>523</v>
-      </c>
-      <c r="M32" s="1" t="n">
-        <f aca="false">ROUND((K32/676)*100,2)</f>
-        <v>77.37</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="D34" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="G34" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="M34" s="1" t="n">
-        <f aca="false">ROUND((K34/676)*100,2)</f>
-        <v>78.99</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="D35" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="G35" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <v>506</v>
-      </c>
-      <c r="M35" s="1" t="n">
-        <f aca="false">ROUND((K35/676)*100,2)</f>
-        <v>74.85</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:E43"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M32"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="D7" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <f aca="false">ROUND((K7/576)*100,2)</f>
-        <v>95.14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <f aca="false">ROUND((K8/576)*100,2)</f>
-        <v>92.53</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>515</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <f aca="false">ROUND((K9/576)*100,2)</f>
-        <v>89.41</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>493</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <f aca="false">ROUND((K10/576)*100,2)</f>
-        <v>85.59</v>
-      </c>
-    </row>
-    <row r="11" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>469</v>
-      </c>
-      <c r="M11" s="6" t="n">
-        <f aca="false">ROUND((K11/576)*100,2)</f>
-        <v>81.42</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="G12" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <f aca="false">ROUND((K12/576)*100,2)</f>
-        <v>76.56</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="G13" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>410</v>
@@ -1590,9 +815,6 @@
       <c r="G15" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I15" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K15" s="1" t="n">
         <v>454</v>
       </c>
@@ -1613,9 +835,6 @@
       <c r="G16" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I16" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" s="1" t="n">
         <v>437</v>
       </c>
@@ -1635,9 +854,6 @@
       <c r="E17" s="2"/>
       <c r="G17" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>424</v>
@@ -1665,9 +881,6 @@
       <c r="G19" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I19" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K19" s="1" t="n">
         <v>456</v>
       </c>
@@ -1688,9 +901,6 @@
       <c r="G20" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I20" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K20" s="1" t="n">
         <v>442</v>
       </c>
@@ -1711,9 +921,6 @@
       <c r="G21" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I21" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K21" s="1" t="n">
         <v>426</v>
       </c>
@@ -1733,9 +940,6 @@
       <c r="E22" s="2"/>
       <c r="G22" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>408</v>
@@ -1763,9 +967,6 @@
       <c r="G24" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I24" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K24" s="1" t="n">
         <v>427</v>
       </c>
@@ -1785,9 +986,6 @@
       <c r="E25" s="2"/>
       <c r="G25" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="K25" s="1" t="n">
         <v>411</v>
@@ -1814,9 +1012,6 @@
       <c r="E27" s="2"/>
       <c r="G27" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>376</v>
@@ -1923,7 +1118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1931,7 +1126,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1947,14 +1142,14 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4"/>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,9 +1211,6 @@
       <c r="G7" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K7" s="1" t="n">
         <v>451</v>
       </c>
@@ -2039,9 +1231,6 @@
       <c r="G8" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K8" s="1" t="n">
         <v>434</v>
       </c>
@@ -2062,9 +1251,6 @@
       <c r="G9" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K9" s="1" t="n">
         <v>415</v>
       </c>
@@ -2085,9 +1271,6 @@
       <c r="G10" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K10" s="1" t="n">
         <v>392</v>
       </c>
@@ -2108,9 +1291,6 @@
       <c r="G11" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I11" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" s="1" t="n">
         <v>367</v>
       </c>
@@ -2131,9 +1311,6 @@
       <c r="G12" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I12" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" s="1" t="n">
         <v>338</v>
       </c>
@@ -2154,9 +1331,6 @@
       <c r="G13" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I13" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" s="1" t="n">
         <v>305</v>
       </c>
@@ -2176,9 +1350,6 @@
       <c r="E14" s="2"/>
       <c r="G14" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>270</v>
@@ -2206,9 +1377,6 @@
       <c r="G16" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I16" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K16" s="1" t="n">
         <v>380</v>
       </c>
@@ -2229,9 +1397,6 @@
       <c r="G17" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K17" s="1" t="n">
         <v>366</v>
       </c>
@@ -2252,9 +1417,6 @@
       <c r="G18" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I18" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K18" s="1" t="n">
         <v>350</v>
       </c>
@@ -2275,9 +1437,6 @@
       <c r="G19" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I19" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" s="1" t="n">
         <v>333</v>
       </c>
@@ -2297,9 +1456,6 @@
       <c r="E20" s="2"/>
       <c r="G20" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="K20" s="1" t="n">
         <v>314</v>
@@ -2327,9 +1483,6 @@
       <c r="G22" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="I22" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" s="6" t="n">
         <v>379</v>
       </c>
@@ -2350,9 +1503,6 @@
       <c r="G23" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I23" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" s="1" t="n">
         <v>353</v>
       </c>
@@ -2373,9 +1523,6 @@
       <c r="G24" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I24" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K24" s="1" t="n">
         <v>337</v>
       </c>
@@ -2395,9 +1542,6 @@
       <c r="E25" s="2"/>
       <c r="G25" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="K25" s="1" t="n">
         <v>320</v>
@@ -2424,9 +1568,6 @@
       <c r="E27" s="2"/>
       <c r="G27" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>322</v>
@@ -2556,15 +1697,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2580,14 +1721,14 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4"/>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,7 +1909,7 @@
         <v>1.5</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>323</v>
@@ -2837,7 +1978,7 @@
         <v>1.5</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>321</v>
@@ -2860,7 +2001,7 @@
         <v>1.5</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>307</v>
@@ -2906,7 +2047,7 @@
         <v>1.5</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>275</v>
@@ -2929,7 +2070,7 @@
         <v>1.5</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1" t="n">
         <v>297</v>
@@ -2952,7 +2093,7 @@
         <v>1.5</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1" t="n">
         <v>282</v>
@@ -2975,7 +2116,7 @@
         <v>1.5</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>285</v>
@@ -2985,8 +2126,375 @@
         <v>71.25</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M22" s="1" t="n">
+        <f aca="false">(K22/400)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M23" s="1" t="n">
+        <f aca="false">(K23/400)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="D24" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="G24" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <f aca="false">(K24/400)*100</f>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="G25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <f aca="false">(K25/400)*100</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="G26" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <f aca="false">(K26/400)*100</f>
+        <v>50.75</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="G27" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <f aca="false">(K27/400)*100</f>
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="G28" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <f aca="false">(K28/400)*100</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="G29" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <f aca="false">(K29/400)*100</f>
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="30" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="D30" s="8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="G30" s="9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>192</v>
+      </c>
+      <c r="M30" s="9" t="n">
+        <f aca="false">(K30/400)*100</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="G31" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <f aca="false">(K31/400)*100</f>
+        <v>47.25</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="D32" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <f aca="false">(K32/400)*100</f>
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <f aca="false">(K33/400)*100</f>
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="D34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="G34" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <f aca="false">(K34/400)*100</f>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="D35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="G35" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <f aca="false">(K35/400)*100</f>
+        <v>42.75</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="D36" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="G36" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <f aca="false">(K36/400)*100</f>
+        <v>32.75</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M37" s="1" t="n">
+        <f aca="false">(K37/400)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M38" s="1" t="n">
+        <f aca="false">(K38/400)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M39" s="1" t="n">
+        <f aca="false">(K39/400)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M40" s="1" t="n">
+        <f aca="false">(K40/400)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M41" s="1" t="n">
+        <f aca="false">(K41/400)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M42" s="1" t="n">
+        <f aca="false">(K42/400)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M43" s="1" t="n">
+        <f aca="false">(K43/400)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M44" s="1" t="n">
+        <f aca="false">(K44/400)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M45" s="1" t="n">
+        <f aca="false">(K45/400)*100</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="66">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A3:B3"/>
@@ -3027,6 +2535,32 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3038,7 +2572,91 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <f aca="false">ROUND(1/A2,4)</f>
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">ROUND(1/A3,4)</f>
+        <v>0.0385</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>48.08</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <f aca="false">ROUND(1/A4,4)</f>
+        <v>0.0333</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>49.33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <f aca="false">ROUND(1/A5,4)</f>
+        <v>0.0313</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>48.54</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">ROUND(1/A6,4)</f>
+        <v>0.0278</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>48.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3059,17 +2677,17 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4"/>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,147 +3240,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:C10"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <f aca="false">1/A2</f>
-        <v>0.0454545454545455</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>78.31</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">1/A3</f>
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>81.42</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">1/A4</f>
-        <v>0.0384615384615385</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>81.51</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">1/A5</f>
-        <v>0.0357142857142857</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>79.72</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">1/A6</f>
-        <v>0.0333333333333333</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>78.33</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">1/A7</f>
-        <v>0.03125</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>82.32</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">1/A8</f>
-        <v>0.0277777777777778</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>78.94</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <f aca="false">1/A9</f>
-        <v>0.0263157894736842</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>76.39</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <f aca="false">1/A10</f>
-        <v>0.025</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>82.44</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M42"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3775,14 +3261,17 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D1" s="4"/>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,7 +3290,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3821,1334 +3310,6 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="G5" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="D7" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="G12" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="G13" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="D14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="G14" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="D15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="G15" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="G16" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="D18" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="G18" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="D19" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="G19" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="D20" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="G20" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="D21" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="G21" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <f aca="false">(K21/400)*100</f>
-        <v>85.75</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="D22" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="G22" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="D23" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="G23" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="D24" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="G24" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="D25" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="G25" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="D27" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="G27" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="D28" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="G28" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="D29" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="G29" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I29" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="D30" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="G30" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I30" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="D31" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="G31" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="D32" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="G32" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I32" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="D35" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="G35" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="D36" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="G36" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I36" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="D37" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="G37" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I37" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="D38" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="G38" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="D39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="G39" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I39" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J42"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2" t="n">
-        <v>-15</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="G5" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2" t="n">
-        <v>-14</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="D7" s="2" t="n">
-        <v>-13</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2" t="n">
-        <v>-11</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="G12" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="G13" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="D14" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="G14" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="D15" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="G15" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="D17" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="G17" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="D18" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="G18" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="D19" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="G19" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="D20" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="G20" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="D21" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="G21" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="D22" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="G22" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="D23" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="G23" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="D24" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="G24" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="D25" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="G25" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="D26" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="G26" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="D27" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="G27" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="D28" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="G28" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="D29" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="G29" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I29" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="D30" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="G30" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I30" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M43"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
@@ -5172,9 +3333,6 @@
       <c r="G7" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I7" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" s="1" t="n">
         <v>1007</v>
       </c>
@@ -5201,9 +3359,6 @@
       <c r="G9" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" s="1" t="n">
         <v>1275</v>
       </c>
@@ -5242,9 +3397,6 @@
       <c r="G13" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I13" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K13" s="1" t="n">
         <v>1397</v>
       </c>
@@ -5265,9 +3417,6 @@
       <c r="G14" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I14" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K14" s="1" t="n">
         <v>1359</v>
       </c>
@@ -5288,9 +3437,6 @@
       <c r="G15" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="I15" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" s="6" t="n">
         <v>1319</v>
       </c>
@@ -5310,9 +3456,6 @@
       <c r="E16" s="2"/>
       <c r="G16" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>1275</v>
@@ -5340,9 +3483,6 @@
       <c r="G18" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I18" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K18" s="1" t="n">
         <v>1342</v>
       </c>
@@ -5363,9 +3503,6 @@
       <c r="G19" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I19" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" s="1" t="n">
         <v>1323</v>
       </c>
@@ -5386,9 +3523,6 @@
       <c r="G20" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I20" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K20" s="1" t="n">
         <v>1336</v>
       </c>
@@ -5409,9 +3543,6 @@
       <c r="G21" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I21" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K21" s="1" t="n">
         <v>1311</v>
       </c>
@@ -5432,9 +3563,6 @@
       <c r="G22" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I22" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K22" s="1" t="n">
         <v>1285</v>
       </c>
@@ -5454,9 +3582,6 @@
       <c r="E23" s="2"/>
       <c r="G23" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="K23" s="1" t="n">
         <v>1257</v>
@@ -5484,9 +3609,6 @@
       <c r="G25" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I25" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K25" s="1" t="n">
         <v>1228</v>
       </c>
@@ -5507,9 +3629,6 @@
       <c r="G26" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I26" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K26" s="1" t="n">
         <v>1178</v>
       </c>
@@ -5529,9 +3648,6 @@
       <c r="E27" s="2"/>
       <c r="G27" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>1124</v>
@@ -5725,7 +3841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5733,7 +3849,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P22" activeCellId="0" sqref="P22"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5749,17 +3865,17 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="n">
         <f aca="false">38*38</f>
         <v>1444</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5778,7 +3894,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5890,9 +4006,6 @@
       <c r="G14" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I14" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K14" s="1" t="n">
         <v>1264</v>
       </c>
@@ -5913,9 +4026,6 @@
       <c r="G15" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
-      </c>
       <c r="K15" s="7" t="n">
         <v>1229</v>
       </c>
@@ -5936,9 +4046,6 @@
       <c r="G16" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I16" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K16" s="1" t="n">
         <v>1190</v>
       </c>
@@ -5959,9 +4066,6 @@
       <c r="G17" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K17" s="1" t="n">
         <v>1148</v>
       </c>
@@ -5982,9 +4086,6 @@
       <c r="G18" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="I18" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" s="6" t="n">
         <v>1103</v>
       </c>
@@ -6005,9 +4106,6 @@
       <c r="G19" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I19" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K19" s="1" t="n">
         <v>1128</v>
       </c>
@@ -6027,9 +4125,6 @@
       <c r="E20" s="2"/>
       <c r="G20" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="K20" s="1" t="n">
         <v>1106</v>
@@ -6404,15 +4499,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6428,17 +4523,17 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="n">
         <f aca="false">36*36</f>
         <v>1296</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6457,7 +4552,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6500,9 +4595,6 @@
       <c r="G7" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K7" s="1" t="n">
         <v>1105</v>
       </c>
@@ -6523,9 +4615,6 @@
       <c r="G8" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K8" s="1" t="n">
         <v>1068</v>
       </c>
@@ -6546,9 +4635,6 @@
       <c r="G9" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K9" s="1" t="n">
         <v>1028</v>
       </c>
@@ -6569,9 +4655,6 @@
       <c r="G10" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K10" s="1" t="n">
         <v>1008</v>
       </c>
@@ -6592,9 +4675,6 @@
       <c r="G11" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K11" s="1" t="n">
         <v>986</v>
       </c>
@@ -6615,9 +4695,6 @@
       <c r="G12" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I12" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" s="1" t="n">
         <v>963</v>
       </c>
@@ -6638,9 +4715,6 @@
       <c r="G13" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I13" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K13" s="1" t="n">
         <v>1040</v>
       </c>
@@ -6649,25 +4723,22 @@
         <v>80.25</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+    <row r="14" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5" t="n">
+      <c r="B14" s="2"/>
+      <c r="D14" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="G14" s="6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6" t="n">
+      <c r="E14" s="2"/>
+      <c r="G14" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K14" s="7" t="n">
         <v>1023</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="7" t="n">
         <f aca="false">ROUND((K14/1296)*100,2)</f>
         <v>78.94</v>
       </c>
@@ -6684,9 +4755,6 @@
       <c r="G15" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I15" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" s="1" t="n">
         <v>1006</v>
       </c>
@@ -6707,9 +4775,6 @@
       <c r="G16" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I16" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" s="1" t="n">
         <v>985</v>
       </c>
@@ -6730,9 +4795,6 @@
       <c r="G17" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" s="1" t="n">
         <v>938</v>
       </c>
@@ -6754,7 +4816,7 @@
         <v>1.5</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>889</v>
@@ -6765,132 +4827,343 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="n">
+        <v>19</v>
+      </c>
       <c r="B19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="n">
+        <v>-5</v>
+      </c>
       <c r="E19" s="2"/>
+      <c r="G19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">ROUND((K19/1296)*100,2)</f>
+        <v>64.51</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
       <c r="B20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="n">
+        <v>-4</v>
+      </c>
       <c r="E20" s="2"/>
+      <c r="G20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">ROUND((K20/1296)*100,2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="n">
+        <v>17</v>
+      </c>
       <c r="B21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="n">
+        <v>-3</v>
+      </c>
       <c r="E21" s="2"/>
+      <c r="G21" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">ROUND((K21/1296)*100,2)</f>
+        <v>55.63</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="B22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="n">
+        <v>-2</v>
+      </c>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
+      <c r="G22" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <f aca="false">ROUND((K22/1296)*100,2)</f>
+        <v>50.77</v>
+      </c>
+    </row>
+    <row r="23" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="B23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="n">
+        <v>-1.5</v>
+      </c>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
+      <c r="G23" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>643</v>
+      </c>
+      <c r="M23" s="7" t="n">
+        <f aca="false">ROUND((K23/1296)*100,2)</f>
+        <v>49.61</v>
+      </c>
+    </row>
+    <row r="24" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="B24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="n">
+        <v>-1.3</v>
+      </c>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
+      <c r="G24" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <v>636</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <f aca="false">ROUND((K24/1296)*100,2)</f>
+        <v>49.07</v>
+      </c>
+    </row>
+    <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="D25" s="8" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>634</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <f aca="false">ROUND((K25/1296)*100,2)</f>
+        <v>48.92</v>
+      </c>
+    </row>
+    <row r="26" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="B26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="n">
+        <v>-1.1</v>
+      </c>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
+      <c r="G26" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <v>631</v>
+      </c>
+      <c r="M26" s="7" t="n">
+        <f aca="false">ROUND((K26/1296)*100,2)</f>
+        <v>48.69</v>
+      </c>
+    </row>
+    <row r="27" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="B27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="n">
+        <v>-1</v>
+      </c>
       <c r="E27" s="2"/>
+      <c r="G27" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <v>627</v>
+      </c>
+      <c r="M27" s="7" t="n">
+        <f aca="false">ROUND((K27/1296)*100,2)</f>
+        <v>48.38</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="n">
+        <v>15.5</v>
+      </c>
       <c r="B28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="n">
+        <v>-2</v>
+      </c>
       <c r="E28" s="2"/>
+      <c r="G28" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <f aca="false">ROUND((K28/1296)*100,2)</f>
+        <v>49.54</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="B29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="n">
+        <v>-2</v>
+      </c>
       <c r="E29" s="2"/>
+      <c r="G29" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <f aca="false">ROUND((K29/1296)*100,2)</f>
+        <v>48.15</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
+      <c r="A30" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="D30" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="G30" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <f aca="false">ROUND((K30/1296)*100,2)</f>
+        <v>45.76</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
-      <c r="L31" s="0"/>
+      <c r="A31" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="G31" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <f aca="false">ROUND((K31/1296)*100,2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
-      <c r="L32" s="0"/>
+      <c r="A32" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="D32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="G32" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <f aca="false">ROUND((K32/1296)*100,2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
-      <c r="L33" s="0"/>
+      <c r="A33" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M33" s="7" t="n">
+        <f aca="false">ROUND((K33/1296)*100,2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2" t="n">
+        <v>11</v>
+      </c>
       <c r="B34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="E34" s="2"/>
+      <c r="G34" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <f aca="false">ROUND((K34/1296)*100,2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
@@ -6905,28 +5178,60 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="A39" s="0"/>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
+      <c r="L39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="A40" s="0"/>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0"/>
+      <c r="L40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
@@ -6958,6 +5263,12 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
@@ -6970,8 +5281,44 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="98">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A3:B3"/>
@@ -7028,6 +5375,1525 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <f aca="false">32*32</f>
+        <v>1024</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">ROUND((K7/1024)*100,2)</f>
+        <v>60.84</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">ROUND((K8/1024)*100,2)</f>
+        <v>55.76</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/1024)*100,2)</f>
+        <v>50.39</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/1024)*100,2)</f>
+        <v>49.02</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">ROUND((K11/1024)*100,2)</f>
+        <v>48.83</v>
+      </c>
+    </row>
+    <row r="12" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="D12" s="10" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11" t="n">
+        <v>497</v>
+      </c>
+      <c r="M12" s="11" t="n">
+        <f aca="false">ROUND((K12/1024)*100,2)</f>
+        <v>48.54</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">ROUND((K13/1024)*100,2)</f>
+        <v>48.34</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="M14" s="1" t="n">
+        <f aca="false">ROUND((K14/1024)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="M15" s="1" t="n">
+        <f aca="false">ROUND((K15/1024)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="M16" s="1" t="n">
+        <f aca="false">ROUND((K16/1024)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="M17" s="1" t="n">
+        <f aca="false">ROUND((K17/1024)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="M18" s="1" t="n">
+        <f aca="false">ROUND((K18/1024)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="M19" s="1" t="n">
+        <f aca="false">ROUND((K19/1024)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="88">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:E51"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M48"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <v>900</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">ROUND((K7/900)*100,2)</f>
+        <v>84.89</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">ROUND((K8/900)*100,2)</f>
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/900)*100,2)</f>
+        <v>73.56</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/900)*100,2)</f>
+        <v>69.11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">ROUND((K11/900)*100,2)</f>
+        <v>64.22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">ROUND((K12/900)*100,2)</f>
+        <v>59.11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">ROUND((K13/900)*100,2)</f>
+        <v>53.56</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">ROUND((K14/900)*100,2)</f>
+        <v>47.56</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">ROUND((K15/900)*100,2)</f>
+        <v>50.22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">ROUND((K16/900)*100,2)</f>
+        <v>48.89</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="M17" s="1" t="n">
+        <f aca="false">ROUND((K17/900)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">ROUND((K18/900)*100,2)</f>
+        <v>46.89</v>
+      </c>
+    </row>
+    <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="D19" s="8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="G19" s="9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>444</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <f aca="false">ROUND((K19/900)*100,2)</f>
+        <v>49.33</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">ROUND((K20/900)*100,2)</f>
+        <v>51.56</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">ROUND((K21/900)*100,2)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <f aca="false">ROUND((K22/900)*100,2)</f>
+        <v>48.22</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="D24" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="G24" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <f aca="false">ROUND((K24/900)*100,2)</f>
+        <v>83.56</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="G25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <f aca="false">ROUND((K25/900)*100,2)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="G26" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <f aca="false">ROUND((K26/900)*100,2)</f>
+        <v>80.22</v>
+      </c>
+    </row>
+    <row r="27" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="G27" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <v>705</v>
+      </c>
+      <c r="M27" s="7" t="n">
+        <f aca="false">ROUND((K27/900)*100,2)</f>
+        <v>78.33</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="G28" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <f aca="false">ROUND((K28/900)*100,2)</f>
+        <v>76.22</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="G29" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <f aca="false">ROUND((K29/900)*100,2)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="1" t="n">
+        <f aca="false">ROUND((K30/900)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="1" t="n">
+        <f aca="false">ROUND((K31/900)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="1" t="n">
+        <f aca="false">ROUND((K32/900)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="1" t="n">
+        <f aca="false">ROUND((K33/900)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="M34" s="1" t="n">
+        <f aca="false">ROUND((K34/900)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="M35" s="1" t="n">
+        <f aca="false">ROUND((K35/900)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="D36" s="2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="G36" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <f aca="false">ROUND((K36/900)*100,2)</f>
+        <v>75.33</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="D37" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="G37" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <f aca="false">ROUND((K37/900)*100,2)</f>
+        <v>71.67</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="M38" s="1" t="n">
+        <f aca="false">ROUND((K38/900)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="D39" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="G39" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <f aca="false">ROUND((K39/900)*100,2)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="D40" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="G40" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <f aca="false">ROUND((K40/900)*100,2)</f>
+        <v>74.11</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="A35:B35"/>
@@ -7067,15 +6933,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7088,20 +6954,20 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="n">
-        <f aca="false">32*32</f>
-        <v>1024</v>
+        <f aca="false">28*28</f>
+        <v>784</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7120,7 +6986,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7153,302 +7019,213 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2"/>
       <c r="D7" s="2" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K7" s="1" t="n">
-        <v>931</v>
+        <v>693</v>
       </c>
       <c r="M7" s="1" t="n">
-        <f aca="false">ROUND((K7/1024)*100,2)</f>
-        <v>90.92</v>
+        <f aca="false">ROUND((K7/784)*100,2)</f>
+        <v>88.39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2"/>
       <c r="D8" s="2" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K8" s="1" t="n">
-        <v>910</v>
+        <v>683</v>
       </c>
       <c r="M8" s="1" t="n">
-        <f aca="false">ROUND((K8/1024)*100,2)</f>
-        <v>88.87</v>
+        <f aca="false">ROUND((K8/784)*100,2)</f>
+        <v>87.12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2"/>
       <c r="D9" s="2" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K9" s="1" t="n">
-        <v>876</v>
+        <v>671</v>
       </c>
       <c r="M9" s="1" t="n">
-        <f aca="false">ROUND((K9/1024)*100,2)</f>
-        <v>85.55</v>
+        <f aca="false">ROUND((K9/784)*100,2)</f>
+        <v>85.59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2"/>
       <c r="D10" s="2" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K10" s="1" t="n">
-        <v>860</v>
+        <v>657</v>
       </c>
       <c r="M10" s="1" t="n">
-        <f aca="false">ROUND((K10/1024)*100,2)</f>
-        <v>83.98</v>
+        <f aca="false">ROUND((K10/784)*100,2)</f>
+        <v>83.8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2"/>
       <c r="D11" s="2" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E11" s="2"/>
       <c r="G11" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K11" s="1" t="n">
-        <v>842</v>
+        <v>642</v>
       </c>
       <c r="M11" s="1" t="n">
-        <f aca="false">ROUND((K11/1024)*100,2)</f>
-        <v>82.23</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="G12" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>823</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <f aca="false">ROUND((K12/1024)*100,2)</f>
-        <v>80.37</v>
+        <f aca="false">ROUND((K11/784)*100,2)</f>
+        <v>81.89</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>625</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <f aca="false">ROUND((K12/784)*100,2)</f>
+        <v>79.72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="B13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="n">
+        <v>-4</v>
+      </c>
       <c r="E13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">ROUND((K13/784)*100,2)</f>
+        <v>77.42</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2"/>
       <c r="D14" s="2" t="n">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="E14" s="2"/>
       <c r="G14" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I14" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K14" s="1" t="n">
-        <v>886</v>
+        <v>587</v>
       </c>
       <c r="M14" s="1" t="n">
-        <f aca="false">ROUND((K14/1024)*100,2)</f>
-        <v>86.52</v>
+        <f aca="false">ROUND((K14/784)*100,2)</f>
+        <v>74.87</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2"/>
       <c r="D15" s="2" t="n">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="E15" s="2"/>
       <c r="G15" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I15" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K15" s="1" t="n">
-        <v>873</v>
+        <v>565</v>
       </c>
       <c r="M15" s="1" t="n">
-        <f aca="false">ROUND((K15/1024)*100,2)</f>
-        <v>85.25</v>
+        <f aca="false">ROUND((K15/784)*100,2)</f>
+        <v>72.07</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>22</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="D16" s="2" t="n">
-        <v>-9</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="G16" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>859</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <f aca="false">ROUND((K16/1024)*100,2)</f>
-        <v>83.89</v>
-      </c>
-    </row>
-    <row r="17" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="G17" s="6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>843</v>
-      </c>
-      <c r="M17" s="6" t="n">
-        <f aca="false">ROUND((K17/1024)*100,2)</f>
-        <v>82.32</v>
-      </c>
-    </row>
-    <row r="18" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="D18" s="2" t="n">
-        <v>-7</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7" t="n">
-        <v>825</v>
-      </c>
-      <c r="M18" s="7" t="n">
-        <f aca="false">ROUND((K18/1024)*100,2)</f>
-        <v>80.57</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>21</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="D19" s="2" t="n">
-        <v>-7</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>807</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <f aca="false">ROUND((K19/1024)*100,2)</f>
-        <v>78.81</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>20</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="D20" s="2" t="n">
-        <v>-6</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <f aca="false">ROUND((K20/1024)*100,2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
@@ -7457,1348 +7234,6 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
-      <c r="L32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
-      <c r="L33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
-      <c r="J34" s="0"/>
-      <c r="K34" s="0"/>
-      <c r="L34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
-      <c r="L35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M42"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4" t="n">
-        <v>900</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="D7" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>764</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <f aca="false">ROUND((K7/900)*100,2)</f>
-        <v>84.89</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <f aca="false">ROUND((K8/900)*100,2)</f>
-        <v>81.56</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>714</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <f aca="false">ROUND((K9/900)*100,2)</f>
-        <v>79.33</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>700</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <f aca="false">ROUND((K10/900)*100,2)</f>
-        <v>77.78</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>662</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <f aca="false">ROUND((K11/900)*100,2)</f>
-        <v>73.56</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="G12" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>622</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <f aca="false">ROUND((K12/900)*100,2)</f>
-        <v>69.11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="G13" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <f aca="false">ROUND((K13/900)*100,2)</f>
-        <v>64.22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="D14" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="G14" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <f aca="false">ROUND((K14/900)*100,2)</f>
-        <v>59.11</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="D18" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="G18" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>752</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <f aca="false">ROUND((K18/900)*100,2)</f>
-        <v>83.56</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="D19" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="G19" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <f aca="false">ROUND((K19/900)*100,2)</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="D20" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="G20" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>722</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <f aca="false">ROUND((K20/900)*100,2)</f>
-        <v>80.22</v>
-      </c>
-    </row>
-    <row r="21" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="G21" s="6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>705</v>
-      </c>
-      <c r="M21" s="6" t="n">
-        <f aca="false">ROUND((K21/900)*100,2)</f>
-        <v>78.33</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="D22" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="G22" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>686</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <f aca="false">ROUND((K22/900)*100,2)</f>
-        <v>76.22</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="D23" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="G23" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>666</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <f aca="false">ROUND((K23/900)*100,2)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="D30" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="G30" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="M30" s="1" t="n">
-        <f aca="false">ROUND((K30/900)*100,2)</f>
-        <v>75.33</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="D31" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="G31" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1" t="n">
-        <v>645</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <f aca="false">ROUND((K31/900)*100,2)</f>
-        <v>71.67</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>684</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <f aca="false">ROUND((K33/900)*100,2)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="D34" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="G34" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1" t="n">
-        <v>667</v>
-      </c>
-      <c r="M34" s="1" t="n">
-        <f aca="false">ROUND((K34/900)*100,2)</f>
-        <v>74.11</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M41"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4" t="n">
-        <f aca="false">28*28</f>
-        <v>784</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="D7" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>693</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <f aca="false">ROUND((K7/784)*100,2)</f>
-        <v>88.39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>683</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <f aca="false">ROUND((K8/784)*100,2)</f>
-        <v>87.12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>671</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <f aca="false">ROUND((K9/784)*100,2)</f>
-        <v>85.59</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>657</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <f aca="false">ROUND((K10/784)*100,2)</f>
-        <v>83.8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <f aca="false">ROUND((K11/784)*100,2)</f>
-        <v>81.89</v>
-      </c>
-    </row>
-    <row r="12" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>625</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <f aca="false">ROUND((K12/784)*100,2)</f>
-        <v>79.72</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="G13" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <f aca="false">ROUND((K13/784)*100,2)</f>
-        <v>77.42</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="D14" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="G14" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <f aca="false">ROUND((K14/784)*100,2)</f>
-        <v>74.87</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="D15" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="G15" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <f aca="false">ROUND((K15/784)*100,2)</f>
-        <v>72.07</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>19</v>
       </c>
@@ -8810,9 +7245,6 @@
       <c r="G22" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I22" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K22" s="1" t="n">
         <v>668</v>
       </c>
@@ -8833,9 +7265,6 @@
       <c r="G23" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I23" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K23" s="1" t="n">
         <v>639</v>
       </c>
@@ -8856,9 +7285,6 @@
       <c r="G24" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I24" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K24" s="1" t="n">
         <v>607</v>
       </c>
@@ -8879,9 +7305,6 @@
       <c r="G25" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I25" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" s="1" t="n">
         <v>572</v>
       </c>
@@ -8901,9 +7324,6 @@
       <c r="E26" s="2"/>
       <c r="G26" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="K26" s="1" t="n">
         <v>533</v>
@@ -8945,9 +7365,6 @@
       <c r="G29" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I29" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" s="1" t="n">
         <v>621</v>
       </c>
@@ -8967,9 +7384,6 @@
       <c r="E30" s="2"/>
       <c r="G30" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="I30" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>592</v>
@@ -9001,9 +7415,6 @@
       <c r="G32" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="I32" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K32" s="1" t="n">
         <v>625</v>
       </c>
@@ -9023,9 +7434,6 @@
       <c r="E33" s="2"/>
       <c r="G33" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="K33" s="1" t="n">
         <v>610</v>
@@ -9162,4 +7570,363 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <f aca="false">ROUND((K5/676)*100,2)</f>
+        <v>60.95</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="G6" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <f aca="false">ROUND((K6/676)*100,2)</f>
+        <v>54.59</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="M7" s="7" t="n">
+        <f aca="false">ROUND((K7/676)*100,2)</f>
+        <v>50.89</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">ROUND((K8/676)*100,2)</f>
+        <v>49.26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">ROUND((K9/676)*100,2)</f>
+        <v>48.67</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">ROUND((K10/676)*100,2)</f>
+        <v>48.37</v>
+      </c>
+    </row>
+    <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="D11" s="8" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="G11" s="9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>325</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <f aca="false">ROUND((K11/676)*100,2)</f>
+        <v>48.08</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <f aca="false">ROUND((K12/676)*100,2)</f>
+        <v>47.78</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">ROUND((K15/676)*100,2)</f>
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/bott index quasicrystal.xlsx
+++ b/bott index quasicrystal.xlsx
@@ -5436,7 +5436,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/bott index quasicrystal.xlsx
+++ b/bott index quasicrystal.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="28">
   <si>
     <t xml:space="preserve">The two lines are fixed, and the system size is varied</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t xml:space="preserve">22x22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/L</t>
   </si>
 </sst>
 </file>
@@ -3318,71 +3324,106 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <f aca="false">ROUND(1/A2,4)</f>
         <v>0.05</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <f aca="false">ROUND(1/A3,4)</f>
         <v>0.0417</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>47.92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <f aca="false">ROUND(1/A4,4)</f>
+        <v>0.0385</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>48.08</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">ROUND(1/A4,4)</f>
+      <c r="B5" s="1" t="n">
+        <f aca="false">ROUND(1/A5,4)</f>
         <v>0.0357</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>47.96</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <f aca="false">ROUND(1/A6,4)</f>
+        <v>0.0333</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>49.33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">ROUND(1/A5,4)</f>
+      <c r="B7" s="1" t="n">
+        <f aca="false">ROUND(1/A7,4)</f>
         <v>0.0313</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>48.54</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">ROUND(1/A6,4)</f>
+      <c r="B8" s="1" t="n">
+        <f aca="false">ROUND(1/A8,4)</f>
         <v>0.0278</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>48.92</v>
       </c>
     </row>
